--- a/Importación_GUIA/1. Importación_Equipos_GUIA.xlsx
+++ b/Importación_GUIA/1. Importación_Equipos_GUIA.xlsx
@@ -201,9 +201,6 @@
     <t>Oficina</t>
   </si>
   <si>
-    <t>Óptimo</t>
-  </si>
-  <si>
     <t>Depósito</t>
   </si>
   <si>
@@ -219,10 +216,13 @@
     <t>Residencia</t>
   </si>
   <si>
-    <t>Médicos</t>
-  </si>
-  <si>
-    <t>Científicos</t>
+    <t>Medicos</t>
+  </si>
+  <si>
+    <t>Cientificos</t>
+  </si>
+  <si>
+    <t>Optimo</t>
   </si>
 </sst>
 </file>
@@ -689,7 +689,7 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -806,13 +806,13 @@
         <v>26</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>27</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K2" s="14" t="s">
         <v>28</v>
@@ -869,7 +869,7 @@
         <v>26</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>27</v>
@@ -932,19 +932,19 @@
         <v>26</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="I4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="K4" s="14" t="s">
+      <c r="L4" s="14" t="s">
         <v>62</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>63</v>
       </c>
       <c r="M4" s="13" t="s">
         <v>30</v>
@@ -969,7 +969,7 @@
         <v>32</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="20.100000000000001" customHeight="1">
@@ -995,7 +995,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>39</v>
@@ -1034,7 +1034,7 @@
         <v>32</v>
       </c>
       <c r="U5" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="20.100000000000001" customHeight="1">
@@ -1060,13 +1060,13 @@
         <v>26</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>47</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K6" s="14" t="s">
         <v>48</v>
@@ -1109,7 +1109,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
   <ignoredErrors>
-    <ignoredError sqref="L2 A2 L6 A3:M5 A6:K6 M6" numberStoredAsText="1"/>
+    <ignoredError sqref="L2 A2 L6 A3:G5 A6:G6 M6 I3:M5 I6:K6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Importación_GUIA/1. Importación_Equipos_GUIA.xlsx
+++ b/Importación_GUIA/1. Importación_Equipos_GUIA.xlsx
@@ -123,9 +123,6 @@
     <t>chequeado</t>
   </si>
   <si>
-    <t>Maquinaria</t>
-  </si>
-  <si>
     <t>000002</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
     <t>14299653</t>
   </si>
   <si>
-    <t>Comunicaciones</t>
-  </si>
-  <si>
     <t>000003</t>
   </si>
   <si>
@@ -198,9 +192,6 @@
     <t>No hay usuario</t>
   </si>
   <si>
-    <t>Oficina</t>
-  </si>
-  <si>
     <t>Depósito</t>
   </si>
   <si>
@@ -216,13 +207,22 @@
     <t>Residencia</t>
   </si>
   <si>
-    <t>Medicos</t>
-  </si>
-  <si>
-    <t>Cientificos</t>
-  </si>
-  <si>
     <t>Optimo</t>
+  </si>
+  <si>
+    <t>maquinaria</t>
+  </si>
+  <si>
+    <t>comunicaciones</t>
+  </si>
+  <si>
+    <t>medicos</t>
+  </si>
+  <si>
+    <t>cientificos</t>
+  </si>
+  <si>
+    <t>oficina</t>
   </si>
 </sst>
 </file>
@@ -689,7 +689,7 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -806,13 +806,13 @@
         <v>26</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>27</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K2" s="14" t="s">
         <v>28</v>
@@ -843,24 +843,24 @@
         <v>32</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="12">
-        <v>3291</v>
+      <c r="C3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>26</v>
@@ -869,19 +869,19 @@
         <v>26</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>26</v>
+        <v>45</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="M3" s="13" t="s">
         <v>30</v>
@@ -889,7 +889,9 @@
       <c r="N3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="17"/>
+      <c r="O3" s="17">
+        <v>1</v>
+      </c>
       <c r="P3" s="17">
         <v>5</v>
       </c>
@@ -906,25 +908,25 @@
         <v>32</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="D4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>46</v>
-      </c>
       <c r="F4" s="10" t="s">
         <v>26</v>
       </c>
@@ -932,19 +934,19 @@
         <v>26</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M4" s="13" t="s">
         <v>30</v>
@@ -974,10 +976,10 @@
     </row>
     <row r="5" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>26</v>
@@ -986,28 +988,28 @@
         <v>26</v>
       </c>
       <c r="E5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I5" s="10" t="s">
+      <c r="J5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="14" t="s">
+      <c r="L5" s="14" t="s">
         <v>40</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>41</v>
       </c>
       <c r="M5" s="13" t="s">
         <v>30</v>
@@ -1039,19 +1041,19 @@
     </row>
     <row r="6" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>37</v>
+      <c r="D6" s="12">
+        <v>3291</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>26</v>
@@ -1060,19 +1062,19 @@
         <v>26</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>49</v>
+        <v>27</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="M6" s="13" t="s">
         <v>30</v>
@@ -1080,9 +1082,7 @@
       <c r="N6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="17">
-        <v>1</v>
-      </c>
+      <c r="O6" s="17"/>
       <c r="P6" s="17">
         <v>5</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>32</v>
       </c>
       <c r="U6" s="8" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1109,7 +1109,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
   <ignoredErrors>
-    <ignoredError sqref="L2 A2 L6 A3:G5 A6:G6 M6 I3:M5 I6:K6" numberStoredAsText="1"/>
+    <ignoredError sqref="L2 A2 B6:G6 I6:M6 A3:A6 L4 L3 L5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Importación_GUIA/1. Importación_Equipos_GUIA.xlsx
+++ b/Importación_GUIA/1. Importación_Equipos_GUIA.xlsx
@@ -689,33 +689,33 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9" style="2" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="18.85546875" style="3" customWidth="1"/>
-    <col min="17" max="17" width="24.28515625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="20.5703125" style="4" customWidth="1"/>
-    <col min="19" max="19" width="26.140625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="10" style="2" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="16" style="2"/>
+    <col min="1" max="1" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="15.7109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">

--- a/Importación_GUIA/1. Importación_Equipos_GUIA.xlsx
+++ b/Importación_GUIA/1. Importación_Equipos_GUIA.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10260"/>
+    <workbookView windowWidth="25600" windowHeight="9400"/>
   </bookViews>
   <sheets>
     <sheet name="Importación_Equipos_GUIA" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Importación_Equipos_GUIA!$A$1:$U$3</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
   <si>
     <t>CÓDIGO</t>
   </si>
@@ -212,40 +225,19 @@
   </si>
   <si>
     <t>Oficina</t>
-  </si>
-  <si>
-    <t>bienesN</t>
-  </si>
-  <si>
-    <t>UNIDAD</t>
-  </si>
-  <si>
-    <t>responsable</t>
-  </si>
-  <si>
-    <t>created_user</t>
-  </si>
-  <si>
-    <t>updated_user</t>
-  </si>
-  <si>
-    <t>created_date</t>
-  </si>
-  <si>
-    <t>updated_date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,20 +284,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -323,23 +301,41 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -351,19 +347,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -375,11 +393,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -391,62 +408,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -458,25 +443,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,7 +563,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,133 +605,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,6 +667,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -697,26 +700,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -728,15 +711,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -764,152 +738,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -923,7 +908,7 @@
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -935,16 +920,16 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -953,7 +938,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -969,60 +954,78 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Énfasis6" xfId="1" builtinId="52"/>
-    <cellStyle name="Normal 2_INVENTARIO SOLICITADO" xfId="2"/>
-    <cellStyle name="40% - Énfasis6" xfId="3" builtinId="51"/>
-    <cellStyle name="20% - Énfasis6" xfId="4" builtinId="50"/>
-    <cellStyle name="40% - Énfasis5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Énfasis5" xfId="6" builtinId="46"/>
-    <cellStyle name="Énfasis5" xfId="7" builtinId="45"/>
-    <cellStyle name="40% - Énfasis4" xfId="8" builtinId="43"/>
-    <cellStyle name="Énfasis4" xfId="9" builtinId="41"/>
-    <cellStyle name="40% - Énfasis3" xfId="10" builtinId="39"/>
-    <cellStyle name="Celda vinculada" xfId="11" builtinId="24"/>
-    <cellStyle name="20% - Énfasis3" xfId="12" builtinId="38"/>
-    <cellStyle name="40% - Énfasis2" xfId="13" builtinId="35"/>
-    <cellStyle name="60% - Énfasis1" xfId="14" builtinId="32"/>
-    <cellStyle name="20% - Énfasis1" xfId="15" builtinId="30"/>
-    <cellStyle name="Moneda [0]" xfId="16" builtinId="7"/>
-    <cellStyle name="60% - Énfasis4" xfId="17" builtinId="44"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29"/>
-    <cellStyle name="Incorrecto" xfId="19" builtinId="27"/>
-    <cellStyle name="Correcto" xfId="20" builtinId="26"/>
-    <cellStyle name="Énfasis6" xfId="21" builtinId="49"/>
-    <cellStyle name="40% - Énfasis1" xfId="22" builtinId="31"/>
-    <cellStyle name="Total" xfId="23" builtinId="25"/>
-    <cellStyle name="60% - Énfasis2" xfId="24" builtinId="36"/>
-    <cellStyle name="Énfasis2" xfId="25" builtinId="33"/>
-    <cellStyle name="Moneda" xfId="26" builtinId="4"/>
-    <cellStyle name="Porcentaje" xfId="27" builtinId="5"/>
-    <cellStyle name="Texto explicativo" xfId="28" builtinId="53"/>
-    <cellStyle name="Título 1" xfId="29" builtinId="16"/>
-    <cellStyle name="Celda de comprobación" xfId="30" builtinId="23"/>
-    <cellStyle name="Cálculo" xfId="31" builtinId="22"/>
-    <cellStyle name="Título 4" xfId="32" builtinId="19"/>
-    <cellStyle name="Título 3" xfId="33" builtinId="18"/>
-    <cellStyle name="Título 2" xfId="34" builtinId="17"/>
-    <cellStyle name="20% - Énfasis2" xfId="35" builtinId="34"/>
-    <cellStyle name="Neutro" xfId="36" builtinId="28"/>
-    <cellStyle name="60% - Énfasis3" xfId="37" builtinId="40"/>
-    <cellStyle name="Título" xfId="38" builtinId="15"/>
-    <cellStyle name="Salida" xfId="39" builtinId="21"/>
-    <cellStyle name="60% - Énfasis5" xfId="40" builtinId="48"/>
-    <cellStyle name="Coma" xfId="41" builtinId="3"/>
-    <cellStyle name="Entrada" xfId="42" builtinId="20"/>
-    <cellStyle name="Nota" xfId="43" builtinId="10"/>
-    <cellStyle name="20% - Énfasis4" xfId="44" builtinId="42"/>
-    <cellStyle name="Hipervínculo visitado" xfId="45" builtinId="9"/>
-    <cellStyle name="Coma [0]" xfId="46" builtinId="6"/>
-    <cellStyle name="Hipervínculo" xfId="47" builtinId="8"/>
-    <cellStyle name="Énfasis3" xfId="48" builtinId="37"/>
-    <cellStyle name="Texto de advertencia" xfId="49" builtinId="11"/>
+    <cellStyle name="Coma" xfId="1" builtinId="3"/>
+    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
+    <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
+    <cellStyle name="Coma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Moneda [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hipervínculo" xfId="6" builtinId="8"/>
+    <cellStyle name="Hipervínculo visitado" xfId="7" builtinId="9"/>
+    <cellStyle name="Nota" xfId="8" builtinId="10"/>
+    <cellStyle name="Texto de advertencia" xfId="9" builtinId="11"/>
+    <cellStyle name="Título" xfId="10" builtinId="15"/>
+    <cellStyle name="Texto explicativo" xfId="11" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
+    <cellStyle name="Salida" xfId="17" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
+    <cellStyle name="Celda de comprobación" xfId="19" builtinId="23"/>
+    <cellStyle name="Celda vinculada" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Correcto" xfId="22" builtinId="26"/>
+    <cellStyle name="Incorrecto" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
+    <cellStyle name="Énfasis1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Énfasis1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Énfasis1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Énfasis1" xfId="28" builtinId="32"/>
+    <cellStyle name="Énfasis2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Énfasis2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Énfasis2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Énfasis2" xfId="32" builtinId="36"/>
+    <cellStyle name="Énfasis3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Énfasis3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Énfasis3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Énfasis3" xfId="36" builtinId="40"/>
+    <cellStyle name="Énfasis4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Énfasis4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Énfasis4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Énfasis4" xfId="40" builtinId="44"/>
+    <cellStyle name="Énfasis5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Énfasis5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Énfasis5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Énfasis5" xfId="44" builtinId="48"/>
+    <cellStyle name="Énfasis6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Énfasis6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Énfasis6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal 2_INVENTARIO SOLICITADO" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1031,6 +1034,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1293,8 +1303,8 @@
   <sheetPr/>
   <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF6" sqref="AF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="20.1" customHeight="1"/>
@@ -1708,69 +1718,27 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="17:37">
-      <c r="Q17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="R17" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="S17" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="T17" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="U17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="V17" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="W17" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="X17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y17" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA17" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD17" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE17" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF17" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG17" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH17" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI17" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ17" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK17" s="19" t="s">
-        <v>20</v>
-      </c>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="23"/>
+      <c r="AD17" s="24"/>
+      <c r="AE17" s="25"/>
+      <c r="AF17" s="25"/>
+      <c r="AG17" s="25"/>
+      <c r="AH17" s="26"/>
+      <c r="AI17" s="26"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A2:U1751">
@@ -1780,7 +1748,7 @@
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="L3:L4 A2:A6" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:A6 L3:L4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>